--- a/regionseng/8/standard of living/expenditures.xlsx
+++ b/regionseng/8/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -309,7 +309,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -375,18 +375,6 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -411,6 +399,22 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -722,36 +726,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="33"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5">
         <v>2011</v>
@@ -786,8 +794,14 @@
       <c r="L2" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -821,11 +835,17 @@
       <c r="K3" s="16">
         <v>82.722759036742502</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="16">
         <v>97.028816618432316</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="20">
+        <v>106.62398941301923</v>
+      </c>
+      <c r="N3" s="24">
+        <v>125.78887084899885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -859,11 +879,17 @@
       <c r="K4" s="17">
         <v>75.078633920257786</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="17">
         <v>89.621941598598866</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="21">
+        <v>100.11669203832005</v>
+      </c>
+      <c r="N4" s="25">
+        <v>116.38322652710453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -897,11 +923,17 @@
       <c r="K5" s="18">
         <v>33.856170966807504</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="18">
         <v>39.527980506497123</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="22">
+        <v>43.432847211497247</v>
+      </c>
+      <c r="N5" s="26">
+        <v>49.381413328137917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
@@ -935,11 +967,17 @@
       <c r="K6" s="18">
         <v>2.7048332471637035</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="18">
         <v>3.388659710747818</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="22">
+        <v>3.60302206180332</v>
+      </c>
+      <c r="N6" s="26">
+        <v>7.0366661819814027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
@@ -973,11 +1011,17 @@
       <c r="K7" s="18">
         <v>2.778856150834748</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="18">
         <v>4.6915320363507549</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="22">
+        <v>4.7023657262386207</v>
+      </c>
+      <c r="N7" s="26">
+        <v>6.4807338741557281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
@@ -1011,11 +1055,17 @@
       <c r="K8" s="18">
         <v>7.3516787554293321</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="18">
         <v>9.7652404418485013</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="22">
+        <v>11.986077850602468</v>
+      </c>
+      <c r="N8" s="26">
+        <v>11.073201488586422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1049,11 +1099,17 @@
       <c r="K9" s="18">
         <v>9.7209199441569361</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="18">
         <v>10.874628745789497</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="22">
+        <v>11.266611890634358</v>
+      </c>
+      <c r="N9" s="26">
+        <v>13.242351161392545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -1087,11 +1143,17 @@
       <c r="K10" s="18">
         <v>6.9605445929442906</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="18">
         <v>8.4021375333280037</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="22">
+        <v>10.556367666133861</v>
+      </c>
+      <c r="N10" s="26">
+        <v>10.423825896176741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
@@ -1125,11 +1187,17 @@
       <c r="K11" s="18">
         <v>0.8588733061803181</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="18">
         <v>1.0087309897715249</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="22">
+        <v>1.5046691736628215</v>
+      </c>
+      <c r="N11" s="26">
+        <v>1.933405433629354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
@@ -1163,11 +1231,17 @@
       <c r="K12" s="18">
         <v>10.846756956740963</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="18">
         <v>11.963031634265652</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="22">
+        <v>13.064730457747393</v>
+      </c>
+      <c r="N12" s="26">
+        <v>16.811629163044429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -1201,11 +1275,17 @@
       <c r="K13" s="17">
         <v>7.6441251164847053</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="17">
         <v>7.4068750198334481</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="21">
+        <v>6.5072973746991174</v>
+      </c>
+      <c r="N13" s="25">
+        <v>9.4056443218943127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1239,11 +1319,17 @@
       <c r="K14" s="17">
         <v>20.878583609626773</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="17">
         <v>25.070716352643334</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="21">
+        <v>32.087194696070597</v>
+      </c>
+      <c r="N14" s="25">
+        <v>37.684707020932521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
@@ -1277,11 +1363,17 @@
       <c r="K15" s="18">
         <v>1.7577025895970664</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="18">
         <v>2.7553098978296919</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="22">
+        <v>3.0349819164278666</v>
+      </c>
+      <c r="N15" s="26">
+        <v>4.1138975643997187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
@@ -1315,11 +1407,17 @@
       <c r="K16" s="18">
         <v>1.3417294872004193</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="18">
         <v>1.4547206554158527</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="22">
+        <v>2.4798684048411053</v>
+      </c>
+      <c r="N16" s="26">
+        <v>3.893714482378642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
@@ -1353,11 +1451,17 @@
       <c r="K17" s="18">
         <v>15.169174303176881</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="18">
         <v>17.871323077229821</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="22">
+        <v>24.72203705490621</v>
+      </c>
+      <c r="N17" s="26">
+        <v>28.283899228144332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
@@ -1391,11 +1495,17 @@
       <c r="K18" s="18">
         <v>2.6099772296524044</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="18">
         <v>2.9893627221679688</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="22">
+        <v>1.8503073198954263</v>
+      </c>
+      <c r="N18" s="26">
+        <v>1.3931957460098268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
@@ -1429,11 +1539,17 @@
       <c r="K19" s="17">
         <v>95.957217529884559</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="17">
         <v>114.6926579512422</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="21">
+        <v>132.20388673439069</v>
+      </c>
+      <c r="N19" s="25">
+        <v>154.06793354803708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -1467,11 +1583,17 @@
       <c r="K20" s="19">
         <v>103.60134264636929</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="19">
         <v>122.09953297107567</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75">
+      <c r="M20" s="23">
+        <v>138.71118410908983</v>
+      </c>
+      <c r="N20" s="27">
+        <v>163.47357786993138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1481,7 +1603,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1491,23 +1613,25 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
         <v>2011</v>
@@ -1542,8 +1666,14 @@
       <c r="L24" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -1577,11 +1707,17 @@
       <c r="K25" s="16">
         <v>717.58714299800931</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="16">
         <v>828.27596144814618</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="20">
+        <v>924.28259875212018</v>
+      </c>
+      <c r="N25" s="24">
+        <v>1063.0672855389332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
@@ -1615,11 +1751,17 @@
       <c r="K26" s="17">
         <v>651.27738777549314</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="17">
         <v>765.04797679174715</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="21">
+        <v>867.87332574094376</v>
+      </c>
+      <c r="N26" s="25">
+        <v>983.57827581545916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>0</v>
       </c>
@@ -1653,11 +1795,17 @@
       <c r="K27" s="18">
         <v>293.68886241007374</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="18">
         <v>337.42631518297765</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="22">
+        <v>376.50274682879842</v>
+      </c>
+      <c r="N27" s="26">
+        <v>417.33234958311482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="13" t="s">
         <v>1</v>
       </c>
@@ -1691,11 +1839,17 @@
       <c r="K28" s="18">
         <v>23.463356211996359</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="18">
         <v>28.926925811924789</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="22">
+        <v>31.233220713069315</v>
+      </c>
+      <c r="N28" s="26">
+        <v>59.468294506772054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>2</v>
       </c>
@@ -1729,11 +1883,17 @@
       <c r="K29" s="18">
         <v>24.105475558355788</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="18">
         <v>40.048754004230645</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="22">
+        <v>40.763010628826002</v>
+      </c>
+      <c r="N29" s="26">
+        <v>54.769997706468615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>3</v>
       </c>
@@ -1767,11 +1927,17 @@
       <c r="K30" s="18">
         <v>63.772898967314653</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="18">
         <v>83.359915101838652</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="22">
+        <v>103.9027262587808</v>
+      </c>
+      <c r="N30" s="26">
+        <v>93.581873891118803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>17</v>
       </c>
@@ -1805,11 +1971,17 @@
       <c r="K31" s="18">
         <v>84.325127102465572</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="18">
         <v>92.830087944197075</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="22">
+        <v>97.665950924694329</v>
+      </c>
+      <c r="N31" s="26">
+        <v>111.91379816258963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>4</v>
       </c>
@@ -1843,11 +2015,17 @@
       <c r="K32" s="18">
         <v>60.379965154965689</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="18">
         <v>71.723935075951147</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="22">
+        <v>91.509115289637435</v>
+      </c>
+      <c r="N32" s="26">
+        <v>88.093868921689591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="13" t="s">
         <v>5</v>
       </c>
@@ -1881,11 +2059,17 @@
       <c r="K33" s="18">
         <v>7.4503854701635746</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="18">
         <v>8.6109226054070085</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="22">
+        <v>13.04340178745425</v>
+      </c>
+      <c r="N33" s="26">
+        <v>16.339601844760018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>6</v>
       </c>
@@ -1919,11 +2103,17 @@
       <c r="K34" s="18">
         <v>94.09131690015775</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="18">
         <v>102.12112106522015</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="22">
+        <v>113.25315330968354</v>
+      </c>
+      <c r="N34" s="26">
+        <v>142.07849119894576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>13</v>
       </c>
@@ -1957,11 +2147,17 @@
       <c r="K35" s="17">
         <v>66.309755222516188</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="17">
         <v>63.227984656399165</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="21">
+        <v>56.409273011176083</v>
+      </c>
+      <c r="N35" s="25">
+        <v>79.489009723473842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>14</v>
       </c>
@@ -1995,11 +2191,17 @@
       <c r="K36" s="17">
         <v>181.11343645613391</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="17">
         <v>214.01344894105054</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="21">
+        <v>278.1516229473221</v>
+      </c>
+      <c r="N36" s="25">
+        <v>318.48110988422599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>7</v>
       </c>
@@ -2033,11 +2235,17 @@
       <c r="K37" s="18">
         <v>15.247373204137626</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="18">
         <v>23.520403878438586</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="22">
+        <v>26.309097871169271</v>
+      </c>
+      <c r="N37" s="26">
+        <v>34.767383531262887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>8</v>
       </c>
@@ -2071,11 +2279,17 @@
       <c r="K38" s="18">
         <v>11.638971434314563</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L38" s="18">
         <v>12.418064977968095</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="22">
+        <v>21.497031075353267</v>
+      </c>
+      <c r="N38" s="26">
+        <v>32.906571602942719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>9</v>
       </c>
@@ -2109,11 +2323,17 @@
       <c r="K39" s="18">
         <v>131.586573956276</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L39" s="18">
         <v>152.55660967559407</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="22">
+        <v>214.30588727122631</v>
+      </c>
+      <c r="N39" s="26">
+        <v>239.03297465015308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="13" t="s">
         <v>10</v>
       </c>
@@ -2147,11 +2367,17 @@
       <c r="K40" s="18">
         <v>22.640517861405694</v>
       </c>
-      <c r="L40" s="26">
+      <c r="L40" s="18">
         <v>25.518370409049794</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="22">
+        <v>16.0396067295733</v>
+      </c>
+      <c r="N40" s="26">
+        <v>11.774180099867261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
@@ -2185,11 +2411,17 @@
       <c r="K41" s="17">
         <v>832.39082423162699</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="17">
         <v>979.0614257327976</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="21">
+        <v>1146.0249486882662</v>
+      </c>
+      <c r="N41" s="25">
+        <v>1302.0593856996854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>16</v>
       </c>
@@ -2223,11 +2455,17 @@
       <c r="K42" s="9">
         <v>898.70057945414328</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="9">
         <v>1042.289410389197</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75">
+      <c r="M42" s="23">
+        <v>1202.4342216994426</v>
+      </c>
+      <c r="N42" s="27">
+        <v>1381.548395423159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2237,7 +2475,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75">
+    <row r="44" spans="1:14" ht="15.75">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2247,23 +2485,25 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="5">
         <v>2011</v>
@@ -2298,8 +2538,14 @@
       <c r="L46" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="6">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -2333,11 +2579,17 @@
       <c r="K47" s="16">
         <v>190.49965113976194</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="16">
         <v>221.85774025253261</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="24">
+        <v>245.39637809814425</v>
+      </c>
+      <c r="N47" s="24">
+        <v>286.27514992635787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>12</v>
       </c>
@@ -2371,11 +2623,17 @@
       <c r="K48" s="17">
         <v>172.89623480167489</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L48" s="17">
         <v>204.92181738442858</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="25">
+        <v>230.41975589755202</v>
+      </c>
+      <c r="N48" s="25">
+        <v>264.86942285184915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="13" t="s">
         <v>0</v>
       </c>
@@ -2409,11 +2667,17 @@
       <c r="K49" s="18">
         <v>77.966315838671321</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="18">
         <v>90.381277825990438</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="26">
+        <v>99.961213746238741</v>
+      </c>
+      <c r="N49" s="26">
+        <v>112.38411958605037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>1</v>
       </c>
@@ -2447,11 +2711,17 @@
       <c r="K50" s="18">
         <v>6.228875777064574</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="18">
         <v>7.7482176132043454</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="26">
+        <v>8.2923980714070193</v>
+      </c>
+      <c r="N50" s="26">
+        <v>16.014315516407159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>2</v>
       </c>
@@ -2485,11 +2755,17 @@
       <c r="K51" s="18">
         <v>6.3993408037378607</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="18">
         <v>10.7272533272287</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="26">
+        <v>10.822550572947389</v>
+      </c>
+      <c r="N51" s="26">
+        <v>14.749103389948454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>3</v>
       </c>
@@ -2523,11 +2799,17 @@
       <c r="K52" s="18">
         <v>16.929950771816472</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="18">
         <v>22.32835824403519</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="26">
+        <v>27.586100542033243</v>
+      </c>
+      <c r="N52" s="26">
+        <v>25.20081780617301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>17</v>
       </c>
@@ -2561,11 +2843,17 @@
       <c r="K53" s="18">
         <v>22.38600210731526</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="18">
         <v>24.864990048407652</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="26">
+        <v>25.93024108945567</v>
+      </c>
+      <c r="N53" s="26">
+        <v>30.137452053734702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>4</v>
       </c>
@@ -2599,11 +2887,17 @@
       <c r="K54" s="18">
         <v>16.029220158260074</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="18">
         <v>19.211604463503523</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="26">
+        <v>24.295605570591228</v>
+      </c>
+      <c r="N54" s="26">
+        <v>23.722943858971753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>5</v>
       </c>
@@ -2637,11 +2931,17 @@
       <c r="K55" s="18">
         <v>1.9778724392876275</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="18">
         <v>2.3064774539453405</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="26">
+        <v>3.4630139754243556</v>
+      </c>
+      <c r="N55" s="26">
+        <v>4.4001184416791626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="13" t="s">
         <v>6</v>
       </c>
@@ -2675,11 +2975,17 @@
       <c r="K56" s="18">
         <v>24.978656905521735</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="18">
         <v>27.35363840811338</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="26">
+        <v>30.06863232945447</v>
+      </c>
+      <c r="N56" s="26">
+        <v>38.260552198884604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>13</v>
       </c>
@@ -2713,11 +3019,17 @@
       <c r="K57" s="17">
         <v>17.603416338087015</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="17">
         <v>16.935922868104043</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="25">
+        <v>14.97662220059215</v>
+      </c>
+      <c r="N57" s="25">
+        <v>21.405727074508686</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>14</v>
       </c>
@@ -2751,11 +3063,17 @@
       <c r="K58" s="17">
         <v>48.080636335638282</v>
       </c>
-      <c r="L58" s="29">
+      <c r="L58" s="17">
         <v>57.324542031496264</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="25">
+        <v>73.849059719990706</v>
+      </c>
+      <c r="N58" s="25">
+        <v>85.764305534619496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="13" t="s">
         <v>7</v>
       </c>
@@ -2789,11 +3107,17 @@
       <c r="K59" s="18">
         <v>4.0477582472433316</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="18">
         <v>6.3000544470394724</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="26">
+        <v>6.9850469297280249</v>
+      </c>
+      <c r="N59" s="26">
+        <v>9.3625662912895233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>8</v>
       </c>
@@ -2827,11 +3151,17 @@
       <c r="K60" s="18">
         <v>3.0898268168507719</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L60" s="18">
         <v>3.3262390345172363</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="26">
+        <v>5.7074465892543635</v>
+      </c>
+      <c r="N60" s="26">
+        <v>8.8614651653202952</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="13" t="s">
         <v>9</v>
       </c>
@@ -2865,11 +3195,17 @@
       <c r="K61" s="18">
         <v>34.932616446580624</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L61" s="18">
         <v>40.863029061038198</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="26">
+        <v>56.898061926590501</v>
+      </c>
+      <c r="N61" s="26">
+        <v>64.369585619056068</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>10</v>
       </c>
@@ -2903,11 +3239,17 @@
       <c r="K62" s="18">
         <v>6.0104348249635491</v>
       </c>
-      <c r="L62" s="30">
+      <c r="L62" s="18">
         <v>6.8352194889013633</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="26">
+        <v>4.2585042744178141</v>
+      </c>
+      <c r="N62" s="26">
+        <v>3.1706884589536122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>15</v>
       </c>
@@ -2941,11 +3283,17 @@
       <c r="K63" s="17">
         <v>220.9768711373132</v>
       </c>
-      <c r="L63" s="29">
+      <c r="L63" s="17">
         <v>262.24635941592487</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="25">
+        <v>304.26881561754283</v>
+      </c>
+      <c r="N63" s="25">
+        <v>350.63372838646865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="15" t="s">
         <v>16</v>
       </c>
@@ -2979,104 +3327,116 @@
       <c r="K64" s="19">
         <v>238.58028747540024</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L64" s="19">
         <v>279.18228228402893</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="22" t="s">
+      <c r="M64" s="27">
+        <v>319.24543781813497</v>
+      </c>
+      <c r="N64" s="27">
+        <v>372.03945546097742</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
-      <c r="A66" s="23" t="s">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" customHeight="1">
-      <c r="A67" s="20" t="s">
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" customHeight="1">
+      <c r="A67" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L67"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
     <mergeCell ref="A69:J69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
